--- a/output.xlsx
+++ b/output.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
@@ -623,326 +623,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0R/±5%/1/10W/0603</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>9</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>R18R49R79R95R96R116R229R298R302</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>国巨/厚生</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0R/±5%/1/8W/0805</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>R171R349</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>国巨/厚生</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0R/±5%/1/2W/1210</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>R153R194</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>国巨/厚生</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10R/±5％/1/10W/0805</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>6</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>R4R12R60R213R217R219</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>国巨/厚生</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>33R/±5%/1/10W/0603</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
-        <v>7</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>R159R161R162R163R330R333R334</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>国巨/厚生</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>51R/±5%/1/8W/0805</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>R28</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>国巨/厚生</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>51R/±5%/1W/2512</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>R57R86R205</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>国巨/厚生</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>8</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>100R/±5%/1/10W/0603</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>54</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>R51R107R141R142R144R145R146R156R160R165R192R198R202R206R226R232R276R277R284R286R292R294R295R296R297R299R300R301R326R328R331R332R336R337R351R352R353R354R355R356R357R358R359R360R361R362R363R364R365R366R367R398R400R416</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>国巨/厚生</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>9</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>100R/±5%/1/8W/0805</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>R413</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>国巨/厚生</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>10</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>75R/±5%/1W/2512</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>8</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>R71R150R151R152R155R183R273R274</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>国巨/厚生</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="B1:B4 IX4 ST4 ACP4 AML4 AWH4 BGD4 BPZ4 BZV4 CJR4 CTN4 DDJ4 DNF4 DXB4 EGX4 EQT4 FAP4 FKL4 FUH4 GED4 GNZ4 GXV4 HHR4 HRN4 IBJ4 ILF4 IVB4 JEX4 JOT4 JYP4 KIL4 KSH4 LCD4 LLZ4 LVV4 MFR4 MPN4 MZJ4 NJF4 NTB4 OCX4 OMT4 OWP4 PGL4 PQH4 QAD4 QJZ4 QTV4 RDR4 RNN4 RXJ4 SHF4 SRB4 TAX4 TKT4 TUP4 UEL4 UOH4 UYD4 VHZ4 VRV4 WBR4 WLN4 WVJ4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" error="请 加入该物料为“贴片”还是“插件”或是”组装“信息描述" promptTitle="请 加入该物料为“贴片”还是“插件”或是”组装“信息描述" prompt="请 加入该物料为“贴片”还是“插件”或是”组装“信息描述" type="textLength" errorStyle="information" operator="greaterThan">
